--- a/biology/Zoologie/Ilisia/Ilisia.xlsx
+++ b/biology/Zoologie/Ilisia/Ilisia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trichosticha, Acyphona
 Ilisia est un genre de mouche grue de la famille des Limoniidae.
@@ -512,7 +524,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>I. armillaris (Osten Sacken, 1869)
 I. asymmetrica (Alexander, 1913)
@@ -524,9 +538,43 @@
 I. occoecata Edwards, 1936
 I. parchomenkoi Savchenko, 1974
 I. tenuisentis (Alexander, 1930)
-I. venusta (Osten Sacken, 1860)
-Espèces fossiles
-†Ilisia gracilis Nicolas Théobald 1937[1]</t>
+I. venusta (Osten Sacken, 1860)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ilisia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ilisia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>†Ilisia gracilis Nicolas Théobald 1937</t>
         </is>
       </c>
     </row>
